--- a/news_data/news_2018_1.xlsx
+++ b/news_data/news_2018_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2756"/>
+  <dimension ref="A1:B2632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30532,43 +30532,43 @@
     <row r="2509">
       <c r="A2509" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2509" t="inlineStr">
         <is>
-          <t>洗錢防制受評鑑名單Q3公布 金管會先行抽考</t>
+          <t>【華冠投顧】利空是多頭的好朋友  是強勢股的上車機會</t>
         </is>
       </c>
     </row>
     <row r="2510">
       <c r="A2510" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2510" t="inlineStr">
         <is>
-          <t>金管會啟動金融六法修法 期交法開第一槍 罰鍰上限倍增</t>
+          <t>小米攜全國電合攻智慧家電 目標今年營收再創新高</t>
         </is>
       </c>
     </row>
     <row r="2511">
       <c r="A2511" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2511" t="inlineStr">
         <is>
-          <t>【華冠投顧】01/30（二）美股恐慌帶著台股殺很大～</t>
+          <t>【華冠投顧】01/31（三）第200篇：人工盤</t>
         </is>
       </c>
     </row>
     <row r="2512">
       <c r="A2512" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2512" t="inlineStr">
@@ -30580,7 +30580,7 @@
     <row r="2513">
       <c r="A2513" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2513" t="inlineStr">
@@ -30592,7 +30592,7 @@
     <row r="2514">
       <c r="A2514" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2514" t="inlineStr">
@@ -30604,7 +30604,7 @@
     <row r="2515">
       <c r="A2515" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2515" t="inlineStr">
@@ -30616,1231 +30616,1231 @@
     <row r="2516">
       <c r="A2516" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2516" t="inlineStr">
         <is>
-          <t>〈宏達電谷歌交易〉創始元老 營運長陳文俊將轉任Google研發專案團隊</t>
+          <t>中華電今年4G用戶衝千萬 財測拚營收、獲利雙成長</t>
         </is>
       </c>
     </row>
     <row r="2517">
       <c r="A2517" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2517" t="inlineStr">
         <is>
-          <t>台新銀攜手橘子支攻行動支付 成首家「帳號連結扣款」合作銀行</t>
+          <t>〈鉅亨觀點〉鴻海小股東要在台灣參與FII掛牌抽籤 事情恐怕沒那麼簡單</t>
         </is>
       </c>
     </row>
     <row r="2518">
       <c r="A2518" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2518" t="inlineStr">
         <is>
-          <t>艾訊醫療平板連獲歐規醫療認證 智慧醫療業務添翼</t>
+          <t>光寶科攜手臺北市府 建置全台首處「智慧IoT路燈號誌共桿」</t>
         </is>
       </c>
     </row>
     <row r="2519">
       <c r="A2519" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2519" t="inlineStr">
         <is>
-          <t>〈國旅春節住房低迷〉M型化發展 五星飯店需求很旺 訂房率至少有8成</t>
+          <t>【豐銀投顧】開低走高真的有利台股？</t>
         </is>
       </c>
     </row>
     <row r="2520">
       <c r="A2520" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2520" t="inlineStr">
         <is>
-          <t>外資中止連11天買超 鴻海股臨會前賣壓不減 三大法人賣超46億元</t>
+          <t>國喬受惠SM需求市況佳 惟中國反傾銷裁定成Q1最大變數</t>
         </is>
       </c>
     </row>
     <row r="2521">
       <c r="A2521" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2521" t="inlineStr">
         <is>
-          <t>台肥有機肥料提升大湖有機草莓農場果實平均重量、甜度與收入</t>
+          <t>【元大期貨】台股期指盤後－台積電撐盤，期指止跌回穩！</t>
         </is>
       </c>
     </row>
     <row r="2522">
       <c r="A2522" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2522" t="inlineStr">
         <is>
-          <t>【豐銀投顧】盤勢翻空了嗎？</t>
+          <t>台達電攜手中央大學成立機器視覺研究中心 將進行3D辨視等研究開發</t>
         </is>
       </c>
     </row>
     <row r="2523">
       <c r="A2523" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2523" t="inlineStr">
         <is>
-          <t>搶年終獎金財 銀行加碼外幣優利定存 降低入門門檻</t>
+          <t>客戶及產能續增 鈺齊-KY今年獲利力拚續創高 全年EPS上看6.5元</t>
         </is>
       </c>
     </row>
     <row r="2524">
       <c r="A2524" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2524" t="inlineStr">
         <is>
-          <t>遭傳向律岡買北韓無煙煤 台塑澄清聲明無此事</t>
+          <t>【顧德投顧】11270創高後，連續6天的震盪了</t>
         </is>
       </c>
     </row>
     <row r="2525">
       <c r="A2525" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2525" t="inlineStr">
         <is>
-          <t>〈國旅春節住房低迷〉平均訂房率連3年僅5成左右 觀光局指出一項關鍵</t>
+          <t>鴻海子公司將在A股掛牌 郭董：鴻海將轉型為平台公司</t>
         </is>
       </c>
     </row>
     <row r="2526">
       <c r="A2526" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2526" t="inlineStr">
         <is>
-          <t>〈力成法說〉今年仍逐季成長 蔡篤恭看今年同樣是樂觀的一年</t>
+          <t>【顧德投顧】關鍵K之王</t>
         </is>
       </c>
     </row>
     <row r="2527">
       <c r="A2527" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2527" t="inlineStr">
         <is>
-          <t>建案挹注 佳穎Q1營收、獲利看俏 今年三大成長動能齊發</t>
+          <t>【亞洲投顧】又換欣興大漲，找到主力找到獲利</t>
         </is>
       </c>
     </row>
     <row r="2528">
       <c r="A2528" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2528" t="inlineStr">
         <is>
-          <t>鉛價漲＋美元收支自動避險 泰銘今年營運挑戰高峰</t>
+          <t>【亞洲投顧】亞洲Q女王</t>
         </is>
       </c>
     </row>
     <row r="2529">
       <c r="A2529" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2529" t="inlineStr">
         <is>
-          <t>〈中光電法說〉新事業獨立成5家子公司 衝刺影像辨識、AI市場</t>
+          <t>【亞洲投顧】股海淘金</t>
         </is>
       </c>
     </row>
     <row r="2530">
       <c r="A2530" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2530" t="inlineStr">
         <is>
-          <t>應華總經理由胡湘麒出任 整合捷邦與日本IKKA 攻電動車組件市場</t>
+          <t>鴻海股臨會郭董喊話 外資不領情連6天賣超 三大法人買超53億元</t>
         </is>
       </c>
     </row>
     <row r="2531">
       <c r="A2531" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2531" t="inlineStr">
         <is>
-          <t>〈億光展望〉今年兩大成長動能驅動 Mini LED預計Q3出貨</t>
+          <t>VHQ本季可望完成現增收購木星時代 現增基準日定3/16</t>
         </is>
       </c>
     </row>
     <row r="2532">
       <c r="A2532" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2532" t="inlineStr">
         <is>
-          <t>大貨車報廢換新車符合3條件 可少繳貨物稅5萬元</t>
+          <t>年前買氣熱 富邦媒股價攀上兩年半新高 力推行動支付搶業績</t>
         </is>
       </c>
     </row>
     <row r="2533">
       <c r="A2533" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2533" t="inlineStr">
         <is>
-          <t>【元大期貨】台股期指盤後－蘋概股重壓，台指跌百點！</t>
+          <t>美系客戶拉貨＋售價調漲 維熹今年家電營收力拼雙位數成長</t>
         </is>
       </c>
     </row>
     <row r="2534">
       <c r="A2534" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2534" t="inlineStr">
         <is>
-          <t>生鮮成零售新戰場 全聯、東森購物前進產地搶高端貨源</t>
+          <t>本業高成長＋業外入帳，震旦行Q4獲利大增125%，EPS 2.88元創高</t>
         </is>
       </c>
     </row>
     <row r="2535">
       <c r="A2535" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2535" t="inlineStr">
         <is>
-          <t>2018年告別量化寬鬆時代 3大風險不可不知</t>
+          <t>裕民簽訂25年運送長約，為歷來最大金額合約，總額逾6億美元</t>
         </is>
       </c>
     </row>
     <row r="2536">
       <c r="A2536" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2536" t="inlineStr">
         <is>
-          <t>〈億光展望〉降背光與照明占比 今年營運將優去年 挑戰重回2016年水準</t>
+          <t>裕民攜淡水河谷 簽史上最大金額25年運送長約</t>
         </is>
       </c>
     </row>
     <row r="2537">
       <c r="A2537" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2537" t="inlineStr">
         <is>
-          <t>〈中光電法說〉去年Q4 EPS 1.83元 3年多新高 全年EPS 4.03元</t>
+          <t>智冠旗下智付寶攜創業家衝電子支付交易規模</t>
         </is>
       </c>
     </row>
     <row r="2538">
       <c r="A2538" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2538" t="inlineStr">
         <is>
-          <t>【顧德投顧】徐照興 台股龍捲風 盤後分析</t>
+          <t>〈旺宏法說〉NOR價格穩定微揚 全年毛利率、營運樂觀</t>
         </is>
       </c>
     </row>
     <row r="2539">
       <c r="A2539" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2539" t="inlineStr">
         <is>
-          <t>佳穎宣布與台廠成易合資，進軍中國車用市場，最快Q3挹注營收</t>
+          <t>中菲行樂見歐美貨運成長 不排除全年獲利挑戰近年高點</t>
         </is>
       </c>
     </row>
     <row r="2540">
       <c r="A2540" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2540" t="inlineStr">
         <is>
-          <t>台郡估今年營收兩位數成長，Q1營收年增四到五成</t>
+          <t>堤維西及儒億獲彰銀等39.8億元聯貸，今年獲利有望成長</t>
         </is>
       </c>
     </row>
     <row r="2541">
       <c r="A2541" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2541" t="inlineStr">
         <is>
-          <t>【亞洲投顧】寶得富股期龍哥 盤後分析</t>
+          <t>聯發科Q4毛利率成長，單季每股賺6.5元，估本季營收季減1~2成</t>
         </is>
       </c>
     </row>
     <row r="2542">
       <c r="A2542" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2542" t="inlineStr">
         <is>
-          <t>【亞洲投顧】胡毓棠盤後分析</t>
+          <t>〈宏達電谷歌交易〉Google Pixel手機很快就會引進台灣</t>
         </is>
       </c>
     </row>
     <row r="2543">
       <c r="A2543" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2543" t="inlineStr">
         <is>
-          <t>【亞洲投顧】劉良梅盤後分析</t>
+          <t>櫃買中心統計今年一月日均量400億元，可望創新高</t>
         </is>
       </c>
     </row>
     <row r="2544">
       <c r="A2544" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2544" t="inlineStr">
         <is>
-          <t>【顧德投顧】關鍵K之王 藍登耀 盤後分析</t>
+          <t>〈飯店拚升級搶人才〉產學合作成搶才關鍵 六福實習生員工數占比達15%</t>
         </is>
       </c>
     </row>
     <row r="2545">
       <c r="A2545" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2545" t="inlineStr">
         <is>
-          <t>【華冠投顧】武傑電台: 台股大跌百點!</t>
+          <t>〈聯發科法說〉Q1淡季發威 營收估減最多2成 毛利率持穩</t>
         </is>
       </c>
     </row>
     <row r="2546">
       <c r="A2546" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2546" t="inlineStr">
         <is>
-          <t>鴻海首次股臨會討論FII赴陸掛牌 必看的五大重點</t>
+          <t>【華冠投顧】兵荒馬亂的過程中，請你的心情放輕鬆</t>
         </is>
       </c>
     </row>
     <row r="2547">
       <c r="A2547" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2547" t="inlineStr">
         <is>
-          <t>力成去年每股賺7.51元 創近七年新高</t>
+          <t>【華冠投顧】台股上下百五點、洗完籌碼戰曆年</t>
         </is>
       </c>
     </row>
     <row r="2548">
       <c r="A2548" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2548" t="inlineStr">
         <is>
-          <t>搶攻寒假旅遊商機 中華電推出中國、歐洲輕量型漫遊上網方案</t>
+          <t>租金漲不停 王品擬斥資8.01億元 買下上海不動產建中國總部</t>
         </is>
       </c>
     </row>
     <row r="2549">
       <c r="A2549" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2549" t="inlineStr">
         <is>
-          <t>關貿去年獲利有望創新高 今年展望正面 全面加薪3%</t>
+          <t>出口超預期 台灣Q4 GDP創2年半來單季高點</t>
         </is>
       </c>
     </row>
     <row r="2550">
       <c r="A2550" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2550" t="inlineStr">
         <is>
-          <t>瑞昱今年營運展望樂觀 估平均毛利率為42-44% 明年會更好</t>
+          <t>〈旺宏法說〉去年稅後純益攀7年新高 全年EPS 3.12元</t>
         </is>
       </c>
     </row>
     <row r="2551">
       <c r="A2551" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2551" t="inlineStr">
         <is>
-          <t>中光電Q4稅後盈餘7.95億元 創2014年Q3來新高 單季EPS 1.83元</t>
+          <t>〈鴻海股臨會〉郭台銘估 今年是5G標準制定元年 2020-2022市場爆發</t>
         </is>
       </c>
     </row>
     <row r="2552">
       <c r="A2552" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2552" t="inlineStr">
         <is>
-          <t>台郡去年大賺逾一個股本 每股獲利10.07元創歷史次高</t>
+          <t>【華冠投顧】武傑電台: 台股回測月線!區間震盪!</t>
         </is>
       </c>
     </row>
     <row r="2553">
       <c r="A2553" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2553" t="inlineStr">
         <is>
-          <t>裕隆集團推台灣車客松活動 盼實踐汽車自造創客夢</t>
+          <t>〈鴻海股臨會〉比射箭還周全 郭台銘布三網鞏固實體經濟</t>
         </is>
       </c>
     </row>
     <row r="2554">
       <c r="A2554" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2554" t="inlineStr">
         <is>
-          <t>瑞昱去年每股賺6.71元 為近三年來新高</t>
+          <t>【豐銀投顧】今日多方反抗，二月路途艱辛</t>
         </is>
       </c>
     </row>
     <row r="2555">
       <c r="A2555" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2555" t="inlineStr">
         <is>
-          <t>【華冠投顧】林驛銘:台股大跌145點，摜破10日線，回測月線支撐!</t>
+          <t>〈宏達電谷歌交易〉王雪紅發信員工 今年加速推展策略 深耕5G殺手級應用</t>
         </is>
       </c>
     </row>
     <row r="2556">
       <c r="A2556" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2556" t="inlineStr">
         <is>
-          <t>【華冠投顧】賴昇楷:大盤重挫145點需要驚慌失措嗎?</t>
+          <t>【華冠投顧】劉彥良 盤後分析</t>
         </is>
       </c>
     </row>
     <row r="2557">
       <c r="A2557" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2557" t="inlineStr">
         <is>
-          <t>【華冠投顧】強龍難壓地頭蛇</t>
+          <t>〈聯發科法說〉Q4毛利率近高標 EPS 6.5元創12季新高 去年EPS 15.56元</t>
         </is>
       </c>
     </row>
     <row r="2558">
       <c r="A2558" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2558" t="inlineStr">
         <is>
-          <t>【華冠投顧】無人商店夯成市場主流</t>
+          <t>【華冠投顧】丞唐講股：台股萬點危機四伏？掌握趨勢族群！-何丞唐 分析師</t>
         </is>
       </c>
     </row>
     <row r="2559">
       <c r="A2559" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2559" t="inlineStr">
         <is>
-          <t>【華冠投顧】外資賣超台積電、退步原來是向前</t>
+          <t>【永豐期貨】台指選擇權盤後－美股重挫 台股翻紅力守月線</t>
         </is>
       </c>
     </row>
     <row r="2560">
       <c r="A2560" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2560" t="inlineStr">
         <is>
-          <t>【永豐期貨】台指選擇權盤後－權值股熄火 台股跌逾百點失守十日線</t>
+          <t>【華冠投顧】林驛銘: 美股大跌，台股守月線支撐! 月線大漲460點!</t>
         </is>
       </c>
     </row>
     <row r="2561">
       <c r="A2561" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2561" t="inlineStr">
         <is>
-          <t>〈力成法說〉去年純益58.5億元 EPS 7.51元 7年來新高</t>
+          <t>智冠旗下智付寶攜手創業家兄弟 推廣行動支付便利購物</t>
         </is>
       </c>
     </row>
     <row r="2562">
       <c r="A2562" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2562" t="inlineStr">
         <is>
-          <t>〈宏達電谷歌交易〉完成交易 台北成Google亞太最大研發基地</t>
+          <t>創業家力拼多元行動支付 目標2025年使用率達90%</t>
         </is>
       </c>
     </row>
     <row r="2563">
       <c r="A2563" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2563" t="inlineStr">
         <is>
-          <t>市場競爭加劇 國賓短期無拓點計畫 估2018全年獲利持平於去年</t>
+          <t>【華冠投顧】無人商店熱門股 元太晶宏獲利落袋-藍慶賜分析師</t>
         </is>
       </c>
     </row>
     <row r="2564">
       <c r="A2564" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2564" t="inlineStr">
         <is>
-          <t>亞泰農曆春節緬甸第三條產線移轉完成，首季營收兩位數成長</t>
+          <t>【群益期貨】台股期權盤後－月線支撐向上  台股上檔仍壓</t>
         </is>
       </c>
     </row>
     <row r="2565">
       <c r="A2565" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2565" t="inlineStr">
         <is>
-          <t>宏達電宣布，與GOOGLE完成合作協議，將取得11億美元交易價金</t>
+          <t>不要相信保本兩個字 億萬富豪靠這5招管理財富</t>
         </is>
       </c>
     </row>
     <row r="2566">
       <c r="A2566" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2566" t="inlineStr">
         <is>
-          <t>〈期交所展望〉原油期貨成第四支柱 夜盤交易今年擬再納4大商品</t>
+          <t>【日盛投顧】盤後分析－指數量縮收腳，暫時守穩月線</t>
         </is>
       </c>
     </row>
     <row r="2567">
       <c r="A2567" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2567" t="inlineStr">
         <is>
-          <t>【日盛投顧】加權與櫃買同步失守10日線</t>
+          <t>搶工業4.0商機 艾訊中南部業務擴張 台中辦事處明搬新家</t>
         </is>
       </c>
     </row>
     <row r="2568">
       <c r="A2568" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2568" t="inlineStr">
         <is>
-          <t>〈期交所展望〉期貨交易量去年再創歷史新高 連續4年突破2億口</t>
+          <t>半導體產業求才若渴 SEMI籲企業、政府正視問題</t>
         </is>
       </c>
     </row>
     <row r="2569">
       <c r="A2569" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2569" t="inlineStr">
         <is>
-          <t>台股2018年投資主軸 施羅德看好5大創新族群</t>
+          <t>電競監視器的黑馬：微星</t>
         </is>
       </c>
     </row>
     <row r="2570">
       <c r="A2570" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2570" t="inlineStr">
         <is>
-          <t>〈宏達電谷歌交易〉合作協議完成 逾300億資金進帳Q1認列</t>
+          <t>聯發科蔡明介將不再兼任執行長 改由蔡力行專任</t>
         </is>
       </c>
     </row>
     <row r="2571">
       <c r="A2571" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2571" t="inlineStr">
         <is>
-          <t>友旺完成補選董監 今年獲利將勝去年 不清楚悠克大舉買股之事</t>
+          <t>台股盤後－月線強力支撐 鴻海點燃網通概念 開低震盪拉高收復11100</t>
         </is>
       </c>
     </row>
     <row r="2572">
       <c r="A2572" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2572" t="inlineStr">
         <is>
-          <t>【群益期貨】台股期權盤後－台幣出現走貶  台股測試月線</t>
+          <t>中菲行深耕印度市場報捷 承攬大型牽引機獲國際龍頭青睞</t>
         </is>
       </c>
     </row>
     <row r="2573">
       <c r="A2573" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2573" t="inlineStr">
         <is>
-          <t>台股盤後－憂葉倫鴿轉鷹恐慌指數狂飆 台積電鴻海帶頭殺回測11000</t>
+          <t>退休金怎麼存 逾5成投資人透過台股和基金</t>
         </is>
       </c>
     </row>
     <row r="2574">
       <c r="A2574" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2574" t="inlineStr">
         <is>
-          <t>〈友旺股臨會〉前董座現身 未出馬角逐董事席次</t>
+          <t>中保轉投資餐廳推新菜單，預期帶動業績成長一成</t>
         </is>
       </c>
     </row>
     <row r="2575">
       <c r="A2575" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2575" t="inlineStr">
         <is>
-          <t>GIS今年看旺 日系外資也喊讚 調高評等至買進</t>
+          <t>反映上游原料成本，燁聯2月內外銷不鏽鋼盤價全面調漲，華新跟進</t>
         </is>
       </c>
     </row>
     <row r="2576">
       <c r="A2576" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2576" t="inlineStr">
         <is>
-          <t>宏碁上月消費性筆電、PC雙雙躋身全美前三大，Chromebook獨佔鰲頭</t>
+          <t>搶蘋果智慧音箱最多軟板訂單，台郡今年營收挑戰300億關，每股賺12元</t>
         </is>
       </c>
     </row>
     <row r="2577">
       <c r="A2577" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2577" t="inlineStr">
         <is>
-          <t>神威抗流感藥品需求熾熱，供不應求</t>
+          <t>中華電今年財測營收目標2,314.7-2,329.7億元，EPS估4.8-5.2元</t>
         </is>
       </c>
     </row>
     <row r="2578">
       <c r="A2578" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2578" t="inlineStr">
         <is>
-          <t>VCSEL應用商機大，全新領軍砷化鎵族群喊衝</t>
+          <t>M503航班爭議 商總憂 恐衝擊台灣春節觀光商機</t>
         </is>
       </c>
     </row>
     <row r="2579">
       <c r="A2579" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2579" t="inlineStr">
         <is>
-          <t>GIS-KY二度祭庫藏股，加碼成都廠資本支出近49億元</t>
+          <t>中國下游需求旺盛，彰源原料上漲成本有望順勢轉嫁</t>
         </is>
       </c>
     </row>
     <row r="2580">
       <c r="A2580" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2580" t="inlineStr">
         <is>
-          <t>華碩延攬英特爾趙允明出任營運長，世代交替再添話題，今股價小跌</t>
+          <t>微星強攻電競，擴大電競桌機與周邊貢獻，今年業績雙位數看增</t>
         </is>
       </c>
     </row>
     <row r="2581">
       <c r="A2581" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2581" t="inlineStr">
         <is>
-          <t>廷鑫私募1500萬股，定價20元，激勵股價大漲</t>
+          <t>鴻海股臨會通過分拆FII赴A股掛牌，郭台銘稱，Q4營運「很健康」</t>
         </is>
       </c>
     </row>
     <row r="2582">
       <c r="A2582" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2582" t="inlineStr">
         <is>
-          <t>TP材料應用廣＋匯損減緩，拓凱今年獲利挑戰成長逾三成</t>
+          <t>崑鼎去年本業獲利小幅成長，本月拿下林口污水處理案一億元合約</t>
         </is>
       </c>
     </row>
     <row r="2583">
       <c r="A2583" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2583" t="inlineStr">
         <is>
-          <t>友旺通過董監補選，最快下午經營團隊名單出爐</t>
+          <t>百達-KY在手設備訂單1.5億元，獲韓廠4000萬元訂單Q3出貨</t>
         </is>
       </c>
     </row>
     <row r="2584">
       <c r="A2584" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2584" t="inlineStr">
         <is>
-          <t>麗清上季及去年營收創高，估Q1可望淡季不淡</t>
+          <t>遭墾丁泊逸跳票，六福表示，投資成本已回收，集團營運不受影響</t>
         </is>
       </c>
     </row>
     <row r="2585">
       <c r="A2585" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2585" t="inlineStr">
         <is>
-          <t>中鴻2月內外銷盤價開漲，股價未受激勵，盤中走跌</t>
+          <t>崇越攜手華銀擁抱太陽能，力推綠能商機</t>
         </is>
       </c>
     </row>
     <row r="2586">
       <c r="A2586" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2586" t="inlineStr">
         <is>
-          <t>力拚轉型，宏森去年餐飲營收貢獻逾9成，明年改掛觀光股</t>
+          <t>受惠無人商店推出，元太電子標籤需求旺，可望續創波段新高</t>
         </is>
       </c>
     </row>
     <row r="2587">
       <c r="A2587" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2587" t="inlineStr">
         <is>
-          <t>〈友旺股臨會〉完成董監補選 是否轉型生技成股東關注焦點</t>
+          <t>旺宏下午舉辦法說，外界展望樂觀</t>
         </is>
       </c>
     </row>
     <row r="2588">
       <c r="A2588" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2588" t="inlineStr">
         <is>
-          <t>茂矽可望脫離全額交割股 並恢復信用交易</t>
+          <t>迅得成PCB設備股新寵兒，盤中股價站上90元大關</t>
         </is>
       </c>
     </row>
     <row r="2589">
       <c r="A2589" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2589" t="inlineStr">
         <is>
-          <t>台股盤中－美股創今年單日最大跌幅拖累 大盤重挫百點破3大關卡</t>
+          <t>台郡去年稅後淨利創歷史新高，惟股價續殺摜破年線</t>
         </is>
       </c>
     </row>
     <row r="2590">
       <c r="A2590" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2590" t="inlineStr">
         <is>
-          <t>【華冠投顧】 劉彥良 盤中解析</t>
+          <t>訊連2月26日舉行法說會，轉投資玩美移動今年營收可望明顯提升</t>
         </is>
       </c>
     </row>
     <row r="2591">
       <c r="A2591" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2591" t="inlineStr">
         <is>
-          <t>全新、訊芯-KY、譁裕、直得、台勝科</t>
+          <t>原料價漲不停，微星醞釀年後調漲電競筆電售價，狗年電競市場旺旺旺</t>
         </is>
       </c>
     </row>
     <row r="2592">
       <c r="A2592" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2592" t="inlineStr">
         <is>
-          <t>台灣鋼聯掛牌上市，盤中漲幅逾三成，展現新股上市蜜月行情</t>
+          <t>元太、中光電、富喬、佳凌</t>
         </is>
       </c>
     </row>
     <row r="2593">
       <c r="A2593" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2593" t="inlineStr">
         <is>
-          <t>12月製造業景氣連7顆黃藍燈 唯一見黃紅燈是造紙業</t>
+          <t>啟碁Q1較淡估營收季減15%，下半年轉強，全年營收挑戰600億元</t>
         </is>
       </c>
     </row>
     <row r="2594">
       <c r="A2594" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2594" t="inlineStr">
         <is>
-          <t>貿聯-KY IT成長動能強勁，今年營收貢獻年增率上看20%</t>
+          <t>遠傳攜手全國電子跨界合作，打造智慧新生活</t>
         </is>
       </c>
     </row>
     <row r="2595">
       <c r="A2595" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2595" t="inlineStr">
         <is>
-          <t>鋼聯轉投資子公司台鋼資源，預計今年第三、第四季將投產</t>
+          <t>特斯拉生產目標可望達成 概念股美琪瑪與康普逆勢抗跌</t>
         </is>
       </c>
     </row>
     <row r="2596">
       <c r="A2596" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2596" t="inlineStr">
         <is>
-          <t>受惠自動需求提升，直得營運樂觀，股價帶量強漲</t>
+          <t>【華冠投顧】華冠投顧 劉彥良-盤中解析</t>
         </is>
       </c>
     </row>
     <row r="2597">
       <c r="A2597" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2597" t="inlineStr">
         <is>
-          <t>新零售、無人商店帶動ESL需求，元太營收占比達15-20%</t>
+          <t>辦門號搭家電年增6倍 遠傳攜全國電、小米搶進</t>
         </is>
       </c>
     </row>
     <row r="2598">
       <c r="A2598" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2598" t="inlineStr">
         <is>
-          <t>〈夏普擬重返PC〉郭董牌補上筆電產品 大中小面板齊攻眼球商機</t>
+          <t>〈鴻海股臨會〉汽車布局 郭台銘證實不會做整車 而是關鍵零組件</t>
         </is>
       </c>
     </row>
     <row r="2599">
       <c r="A2599" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2599" t="inlineStr">
         <is>
-          <t>國壽建壽險業首家最大太陽能系統 每年減碳3.4座大安森林公園</t>
+          <t>〈飯店拚升級搶人才〉雲品開今年第一槍 Q1啟動基層儲備幹部招募</t>
         </is>
       </c>
     </row>
     <row r="2600">
       <c r="A2600" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2600" t="inlineStr">
         <is>
-          <t>上銀多方題材加持 股價攀72個月來高點</t>
+          <t>瑞昱Q4毛利率低預期 股價一度重挫跌破月線</t>
         </is>
       </c>
     </row>
     <row r="2601">
       <c r="A2601" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2601" t="inlineStr">
         <is>
-          <t>製造業今年景氣比一比 運輸業見4大負面因素唯一亮「藍燈」</t>
+          <t>太設董座傳出恐遭挑戰換人？公司發言人稱，無法證實</t>
         </is>
       </c>
     </row>
     <row r="2602">
       <c r="A2602" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2602" t="inlineStr">
         <is>
-          <t>〈夏普擬重返PC〉傳有意以100億日圓 收購東芝PC部門</t>
+          <t>台股盤中─封關倒數、美股下跌投資心態觀望 大盤守月線</t>
         </is>
       </c>
     </row>
     <row r="2603">
       <c r="A2603" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2603" t="inlineStr">
         <is>
-          <t>3D感測大爆發，全新價量齊揚</t>
+          <t>〈鴻海股臨會〉問Q4毛利率 郭台銘：如果回答以後恐要在土城看守所開會</t>
         </is>
       </c>
     </row>
     <row r="2604">
       <c r="A2604" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2604" t="inlineStr">
         <is>
-          <t>訊芯-KY將擺脫轉型陣痛期，盤中股價站上所有均線</t>
+          <t>〈鴻海股臨會〉郭台銘：將協助小股東抽籤認購FII股票 不用跑對岸到土城就好</t>
         </is>
       </c>
     </row>
     <row r="2605">
       <c r="A2605" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2605" t="inlineStr">
         <is>
-          <t>TPK法說將登場 去年EPS估達7-8元 擺脫連2年虧損</t>
+          <t>雄獅挾台幣升值利多 再擁2大成長新動能</t>
         </is>
       </c>
     </row>
     <row r="2606">
       <c r="A2606" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2606" t="inlineStr">
         <is>
-          <t>智伸科毛利率提升，估今年業績增逾20%</t>
+          <t>〈鴻海股臨會〉郭台銘：FII是六流公司 可提升生產效率30%</t>
         </is>
       </c>
     </row>
     <row r="2607">
       <c r="A2607" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2607" t="inlineStr">
         <is>
-          <t>證交所指數計算新系統6月底完成測試，7月底正式上線</t>
+          <t>〈鴻海股臨會〉郭董：線上看診再等20年吧！</t>
         </is>
       </c>
     </row>
     <row r="2608">
       <c r="A2608" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2608" t="inlineStr">
         <is>
-          <t>昱晶、昇陽光電、新日光簽署合併契約，3月28日召開臨時股東會</t>
+          <t>三箭齊發，超豐今年營收與獲利有望續創新高</t>
         </is>
       </c>
     </row>
     <row r="2609">
       <c r="A2609" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2609" t="inlineStr">
         <is>
-          <t>富邦媒獲利創高 今年拚市占率提升 股價創逾2年新高</t>
+          <t>〈鴻海股臨會〉郭台銘：基本面不錯 但小股民常受外資與消息面影響</t>
         </is>
       </c>
     </row>
     <row r="2610">
       <c r="A2610" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2610" t="inlineStr">
         <is>
-          <t>帝寶遷廠獲補償，每股盈餘貢獻近6元</t>
+          <t>時碩申購中籤率僅1.05% 2/5每股60元掛牌上市</t>
         </is>
       </c>
     </row>
     <row r="2611">
       <c r="A2611" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2611" t="inlineStr">
         <is>
-          <t>購併＋擴產，德微斥資10.26億元進行兩項重大投資強化車用布局</t>
+          <t>業外加持，智原去年賺8.36億元，創五年來新高</t>
         </is>
       </c>
     </row>
     <row r="2612">
       <c r="A2612" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2612" t="inlineStr">
         <is>
-          <t>景碩配息1.5元，比特幣、蘋果SLP等利多加持，今年重拾成長力道</t>
+          <t>力成旺季效應自第二季起顯現，拿下兩家比特幣挖礦機客戶訂單</t>
         </is>
       </c>
     </row>
     <row r="2613">
       <c r="A2613" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2613" t="inlineStr">
         <is>
-          <t>智能資安新世代，精誠以資安AI化迎戰</t>
+          <t>台塑集團總裁表示，上半年能見度高，今年營運不比去年差</t>
         </is>
       </c>
     </row>
     <row r="2614">
       <c r="A2614" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2614" t="inlineStr">
         <is>
-          <t>無人商店登台，統一超宣布「X-STORE」內部測試計畫正式啟動</t>
+          <t>不堪連年虧損，迎輝減資5成，另辦理3千萬股私募，淡出聚光片生產</t>
         </is>
       </c>
     </row>
     <row r="2615">
       <c r="A2615" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2615" t="inlineStr">
         <is>
-          <t>台股盤前—美股收黑恐拖累台股下跌50點 留意蘋概股表現有壓</t>
+          <t>【新光證券】盤前分析</t>
         </is>
       </c>
     </row>
     <row r="2616">
       <c r="A2616" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2616" t="inlineStr">
         <is>
-          <t>【新光證券】盤前分析</t>
+          <t>台股盤前—美股再大跌362點 外資恐成賣壓來源 考驗月線支撐</t>
         </is>
       </c>
     </row>
     <row r="2617">
       <c r="A2617" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2617" t="inlineStr">
         <is>
-          <t>【大昌投顧】盤前分析－傳產類股由塑化、食品等表現較佳</t>
+          <t>【大昌投顧】盤前分析－傳產類股塑化族群跌幅擴大</t>
         </is>
       </c>
     </row>
     <row r="2618">
       <c r="A2618" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2618" t="inlineStr">
@@ -31852,55 +31852,55 @@
     <row r="2619">
       <c r="A2619" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2619" t="inlineStr">
         <is>
-          <t>【統一證券】盤前分析－傳產電子並肩上揚，多頭格局不變</t>
+          <t>【統一證券】盤前分析－短線盤勢震盪難免，但仍有高點可期，逢低承接偏多操作</t>
         </is>
       </c>
     </row>
     <row r="2620">
       <c r="A2620" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2620" t="inlineStr">
         <is>
-          <t>【元大期貨】台股期指盤前－權重股撐盤，台指反彈！</t>
+          <t>【元大期貨】台股期指盤前－蘋概股重壓，台指跌百點！</t>
         </is>
       </c>
     </row>
     <row r="2621">
       <c r="A2621" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2621" t="inlineStr">
         <is>
-          <t>【永豐期貨】台指選擇權盤前－雙王點火 台股拉尾上漲74點</t>
+          <t>【永豐期貨】台指選擇權盤前－權值股熄火 台股跌逾百點失守十日線</t>
         </is>
       </c>
     </row>
     <row r="2622">
       <c r="A2622" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2622" t="inlineStr">
         <is>
-          <t>【大慶證券】投顧盤前－類股輪動  台股短線震盪後再上</t>
+          <t>【大慶證券】投顧盤前－擔憂升息國際股拉回  台股月線為多空關鍵</t>
         </is>
       </c>
     </row>
     <row r="2623">
       <c r="A2623" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2623" t="inlineStr">
@@ -31912,67 +31912,67 @@
     <row r="2624">
       <c r="A2624" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2624" t="inlineStr">
         <is>
-          <t>盤前財經大事搶先讀2018年1月30日</t>
+          <t>【華冠投顧】賺錢金鍾講-台股盤前分析-鍾騏遠分析師</t>
         </is>
       </c>
     </row>
     <row r="2625">
       <c r="A2625" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2625" t="inlineStr">
         <is>
-          <t>【華冠投顧】賺錢金鍾講-台股盤前分析-鍾騏遠分析師</t>
+          <t>盤前財經大事搶先讀2018年1月31日</t>
         </is>
       </c>
     </row>
     <row r="2626">
       <c r="A2626" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2626" t="inlineStr">
         <is>
-          <t>台灣主要報紙重要財經新聞 2018年1月30日</t>
+          <t>台灣主要報紙重要財經新聞 2018年1月31日</t>
         </is>
       </c>
     </row>
     <row r="2627">
       <c r="A2627" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2627" t="inlineStr">
         <is>
-          <t>【鉅亨-盤前掃瞄】技術面</t>
+          <t>【鉅亨-盤前掃瞄】基本面</t>
         </is>
       </c>
     </row>
     <row r="2628">
       <c r="A2628" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2628" t="inlineStr">
         <is>
-          <t>【鉅亨-盤前掃瞄】基本面</t>
+          <t>【鉅亨-盤前掃瞄】技術面</t>
         </is>
       </c>
     </row>
     <row r="2629">
       <c r="A2629" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2629" t="inlineStr">
@@ -31984,7 +31984,7 @@
     <row r="2630">
       <c r="A2630" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2630" t="inlineStr">
@@ -31996,7 +31996,7 @@
     <row r="2631">
       <c r="A2631" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2631" t="inlineStr">
@@ -32008,1498 +32008,10 @@
     <row r="2632">
       <c r="A2632" t="inlineStr">
         <is>
-          <t>2018-01-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B2632" t="inlineStr">
-        <is>
-          <t>◆外資連續5日買超個股</t>
-        </is>
-      </c>
-    </row>
-    <row r="2633">
-      <c r="A2633" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2633" t="inlineStr">
-        <is>
-          <t>【華冠投顧】利空是多頭的好朋友  是強勢股的上車機會</t>
-        </is>
-      </c>
-    </row>
-    <row r="2634">
-      <c r="A2634" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2634" t="inlineStr">
-        <is>
-          <t>小米攜全國電合攻智慧家電 目標今年營收再創新高</t>
-        </is>
-      </c>
-    </row>
-    <row r="2635">
-      <c r="A2635" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2635" t="inlineStr">
-        <is>
-          <t>【華冠投顧】01/31（三）第200篇：人工盤</t>
-        </is>
-      </c>
-    </row>
-    <row r="2636">
-      <c r="A2636" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2636" t="inlineStr">
-        <is>
-          <t>◆投信連續3日賣超個股</t>
-        </is>
-      </c>
-    </row>
-    <row r="2637">
-      <c r="A2637" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2637" t="inlineStr">
-        <is>
-          <t>◆投信連續3日買超個股</t>
-        </is>
-      </c>
-    </row>
-    <row r="2638">
-      <c r="A2638" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2638" t="inlineStr">
-        <is>
-          <t>◆外資連續5日賣超個股</t>
-        </is>
-      </c>
-    </row>
-    <row r="2639">
-      <c r="A2639" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2639" t="inlineStr">
-        <is>
-          <t>◆外資連續5日買超個股</t>
-        </is>
-      </c>
-    </row>
-    <row r="2640">
-      <c r="A2640" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2640" t="inlineStr">
-        <is>
-          <t>中華電今年4G用戶衝千萬 財測拚營收、獲利雙成長</t>
-        </is>
-      </c>
-    </row>
-    <row r="2641">
-      <c r="A2641" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2641" t="inlineStr">
-        <is>
-          <t>〈鉅亨觀點〉鴻海小股東要在台灣參與FII掛牌抽籤 事情恐怕沒那麼簡單</t>
-        </is>
-      </c>
-    </row>
-    <row r="2642">
-      <c r="A2642" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2642" t="inlineStr">
-        <is>
-          <t>光寶科攜手臺北市府 建置全台首處「智慧IoT路燈號誌共桿」</t>
-        </is>
-      </c>
-    </row>
-    <row r="2643">
-      <c r="A2643" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2643" t="inlineStr">
-        <is>
-          <t>【豐銀投顧】開低走高真的有利台股？</t>
-        </is>
-      </c>
-    </row>
-    <row r="2644">
-      <c r="A2644" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2644" t="inlineStr">
-        <is>
-          <t>國喬受惠SM需求市況佳 惟中國反傾銷裁定成Q1最大變數</t>
-        </is>
-      </c>
-    </row>
-    <row r="2645">
-      <c r="A2645" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2645" t="inlineStr">
-        <is>
-          <t>【元大期貨】台股期指盤後－台積電撐盤，期指止跌回穩！</t>
-        </is>
-      </c>
-    </row>
-    <row r="2646">
-      <c r="A2646" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2646" t="inlineStr">
-        <is>
-          <t>台達電攜手中央大學成立機器視覺研究中心 將進行3D辨視等研究開發</t>
-        </is>
-      </c>
-    </row>
-    <row r="2647">
-      <c r="A2647" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2647" t="inlineStr">
-        <is>
-          <t>客戶及產能續增 鈺齊-KY今年獲利力拚續創高 全年EPS上看6.5元</t>
-        </is>
-      </c>
-    </row>
-    <row r="2648">
-      <c r="A2648" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2648" t="inlineStr">
-        <is>
-          <t>【顧德投顧】11270創高後，連續6天的震盪了</t>
-        </is>
-      </c>
-    </row>
-    <row r="2649">
-      <c r="A2649" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2649" t="inlineStr">
-        <is>
-          <t>鴻海子公司將在A股掛牌 郭董：鴻海將轉型為平台公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="2650">
-      <c r="A2650" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2650" t="inlineStr">
-        <is>
-          <t>【顧德投顧】關鍵K之王</t>
-        </is>
-      </c>
-    </row>
-    <row r="2651">
-      <c r="A2651" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2651" t="inlineStr">
-        <is>
-          <t>【亞洲投顧】又換欣興大漲，找到主力找到獲利</t>
-        </is>
-      </c>
-    </row>
-    <row r="2652">
-      <c r="A2652" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2652" t="inlineStr">
-        <is>
-          <t>【亞洲投顧】亞洲Q女王</t>
-        </is>
-      </c>
-    </row>
-    <row r="2653">
-      <c r="A2653" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2653" t="inlineStr">
-        <is>
-          <t>【亞洲投顧】股海淘金</t>
-        </is>
-      </c>
-    </row>
-    <row r="2654">
-      <c r="A2654" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr">
-        <is>
-          <t>鴻海股臨會郭董喊話 外資不領情連6天賣超 三大法人買超53億元</t>
-        </is>
-      </c>
-    </row>
-    <row r="2655">
-      <c r="A2655" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2655" t="inlineStr">
-        <is>
-          <t>VHQ本季可望完成現增收購木星時代 現增基準日定3/16</t>
-        </is>
-      </c>
-    </row>
-    <row r="2656">
-      <c r="A2656" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2656" t="inlineStr">
-        <is>
-          <t>年前買氣熱 富邦媒股價攀上兩年半新高 力推行動支付搶業績</t>
-        </is>
-      </c>
-    </row>
-    <row r="2657">
-      <c r="A2657" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2657" t="inlineStr">
-        <is>
-          <t>美系客戶拉貨＋售價調漲 維熹今年家電營收力拼雙位數成長</t>
-        </is>
-      </c>
-    </row>
-    <row r="2658">
-      <c r="A2658" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2658" t="inlineStr">
-        <is>
-          <t>本業高成長＋業外入帳，震旦行Q4獲利大增125%，EPS 2.88元創高</t>
-        </is>
-      </c>
-    </row>
-    <row r="2659">
-      <c r="A2659" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2659" t="inlineStr">
-        <is>
-          <t>裕民簽訂25年運送長約，為歷來最大金額合約，總額逾6億美元</t>
-        </is>
-      </c>
-    </row>
-    <row r="2660">
-      <c r="A2660" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2660" t="inlineStr">
-        <is>
-          <t>裕民攜淡水河谷 簽史上最大金額25年運送長約</t>
-        </is>
-      </c>
-    </row>
-    <row r="2661">
-      <c r="A2661" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2661" t="inlineStr">
-        <is>
-          <t>智冠旗下智付寶攜創業家衝電子支付交易規模</t>
-        </is>
-      </c>
-    </row>
-    <row r="2662">
-      <c r="A2662" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2662" t="inlineStr">
-        <is>
-          <t>〈旺宏法說〉NOR價格穩定微揚 全年毛利率、營運樂觀</t>
-        </is>
-      </c>
-    </row>
-    <row r="2663">
-      <c r="A2663" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2663" t="inlineStr">
-        <is>
-          <t>中菲行樂見歐美貨運成長 不排除全年獲利挑戰近年高點</t>
-        </is>
-      </c>
-    </row>
-    <row r="2664">
-      <c r="A2664" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2664" t="inlineStr">
-        <is>
-          <t>堤維西及儒億獲彰銀等39.8億元聯貸，今年獲利有望成長</t>
-        </is>
-      </c>
-    </row>
-    <row r="2665">
-      <c r="A2665" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2665" t="inlineStr">
-        <is>
-          <t>聯發科Q4毛利率成長，單季每股賺6.5元，估本季營收季減1~2成</t>
-        </is>
-      </c>
-    </row>
-    <row r="2666">
-      <c r="A2666" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2666" t="inlineStr">
-        <is>
-          <t>〈宏達電谷歌交易〉Google Pixel手機很快就會引進台灣</t>
-        </is>
-      </c>
-    </row>
-    <row r="2667">
-      <c r="A2667" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2667" t="inlineStr">
-        <is>
-          <t>櫃買中心統計今年一月日均量400億元，可望創新高</t>
-        </is>
-      </c>
-    </row>
-    <row r="2668">
-      <c r="A2668" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2668" t="inlineStr">
-        <is>
-          <t>〈飯店拚升級搶人才〉產學合作成搶才關鍵 六福實習生員工數占比達15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="2669">
-      <c r="A2669" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2669" t="inlineStr">
-        <is>
-          <t>〈聯發科法說〉Q1淡季發威 營收估減最多2成 毛利率持穩</t>
-        </is>
-      </c>
-    </row>
-    <row r="2670">
-      <c r="A2670" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2670" t="inlineStr">
-        <is>
-          <t>【華冠投顧】兵荒馬亂的過程中，請你的心情放輕鬆</t>
-        </is>
-      </c>
-    </row>
-    <row r="2671">
-      <c r="A2671" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2671" t="inlineStr">
-        <is>
-          <t>【華冠投顧】台股上下百五點、洗完籌碼戰曆年</t>
-        </is>
-      </c>
-    </row>
-    <row r="2672">
-      <c r="A2672" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2672" t="inlineStr">
-        <is>
-          <t>租金漲不停 王品擬斥資8.01億元 買下上海不動產建中國總部</t>
-        </is>
-      </c>
-    </row>
-    <row r="2673">
-      <c r="A2673" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2673" t="inlineStr">
-        <is>
-          <t>出口超預期 台灣Q4 GDP創2年半來單季高點</t>
-        </is>
-      </c>
-    </row>
-    <row r="2674">
-      <c r="A2674" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2674" t="inlineStr">
-        <is>
-          <t>〈旺宏法說〉去年稅後純益攀7年新高 全年EPS 3.12元</t>
-        </is>
-      </c>
-    </row>
-    <row r="2675">
-      <c r="A2675" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2675" t="inlineStr">
-        <is>
-          <t>〈鴻海股臨會〉郭台銘估 今年是5G標準制定元年 2020-2022市場爆發</t>
-        </is>
-      </c>
-    </row>
-    <row r="2676">
-      <c r="A2676" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2676" t="inlineStr">
-        <is>
-          <t>【華冠投顧】武傑電台: 台股回測月線!區間震盪!</t>
-        </is>
-      </c>
-    </row>
-    <row r="2677">
-      <c r="A2677" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2677" t="inlineStr">
-        <is>
-          <t>〈鴻海股臨會〉比射箭還周全 郭台銘布三網鞏固實體經濟</t>
-        </is>
-      </c>
-    </row>
-    <row r="2678">
-      <c r="A2678" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2678" t="inlineStr">
-        <is>
-          <t>【豐銀投顧】今日多方反抗，二月路途艱辛</t>
-        </is>
-      </c>
-    </row>
-    <row r="2679">
-      <c r="A2679" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2679" t="inlineStr">
-        <is>
-          <t>〈宏達電谷歌交易〉王雪紅發信員工 今年加速推展策略 深耕5G殺手級應用</t>
-        </is>
-      </c>
-    </row>
-    <row r="2680">
-      <c r="A2680" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2680" t="inlineStr">
-        <is>
-          <t>【華冠投顧】劉彥良 盤後分析</t>
-        </is>
-      </c>
-    </row>
-    <row r="2681">
-      <c r="A2681" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2681" t="inlineStr">
-        <is>
-          <t>〈聯發科法說〉Q4毛利率近高標 EPS 6.5元創12季新高 去年EPS 15.56元</t>
-        </is>
-      </c>
-    </row>
-    <row r="2682">
-      <c r="A2682" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2682" t="inlineStr">
-        <is>
-          <t>【華冠投顧】丞唐講股：台股萬點危機四伏？掌握趨勢族群！-何丞唐 分析師</t>
-        </is>
-      </c>
-    </row>
-    <row r="2683">
-      <c r="A2683" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2683" t="inlineStr">
-        <is>
-          <t>【永豐期貨】台指選擇權盤後－美股重挫 台股翻紅力守月線</t>
-        </is>
-      </c>
-    </row>
-    <row r="2684">
-      <c r="A2684" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2684" t="inlineStr">
-        <is>
-          <t>【華冠投顧】林驛銘: 美股大跌，台股守月線支撐! 月線大漲460點!</t>
-        </is>
-      </c>
-    </row>
-    <row r="2685">
-      <c r="A2685" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2685" t="inlineStr">
-        <is>
-          <t>智冠旗下智付寶攜手創業家兄弟 推廣行動支付便利購物</t>
-        </is>
-      </c>
-    </row>
-    <row r="2686">
-      <c r="A2686" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2686" t="inlineStr">
-        <is>
-          <t>創業家力拼多元行動支付 目標2025年使用率達90%</t>
-        </is>
-      </c>
-    </row>
-    <row r="2687">
-      <c r="A2687" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2687" t="inlineStr">
-        <is>
-          <t>【華冠投顧】無人商店熱門股 元太晶宏獲利落袋-藍慶賜分析師</t>
-        </is>
-      </c>
-    </row>
-    <row r="2688">
-      <c r="A2688" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2688" t="inlineStr">
-        <is>
-          <t>【群益期貨】台股期權盤後－月線支撐向上  台股上檔仍壓</t>
-        </is>
-      </c>
-    </row>
-    <row r="2689">
-      <c r="A2689" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2689" t="inlineStr">
-        <is>
-          <t>不要相信保本兩個字 億萬富豪靠這5招管理財富</t>
-        </is>
-      </c>
-    </row>
-    <row r="2690">
-      <c r="A2690" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2690" t="inlineStr">
-        <is>
-          <t>【日盛投顧】盤後分析－指數量縮收腳，暫時守穩月線</t>
-        </is>
-      </c>
-    </row>
-    <row r="2691">
-      <c r="A2691" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2691" t="inlineStr">
-        <is>
-          <t>搶工業4.0商機 艾訊中南部業務擴張 台中辦事處明搬新家</t>
-        </is>
-      </c>
-    </row>
-    <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2692" t="inlineStr">
-        <is>
-          <t>半導體產業求才若渴 SEMI籲企業、政府正視問題</t>
-        </is>
-      </c>
-    </row>
-    <row r="2693">
-      <c r="A2693" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>電競監視器的黑馬：微星</t>
-        </is>
-      </c>
-    </row>
-    <row r="2694">
-      <c r="A2694" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2694" t="inlineStr">
-        <is>
-          <t>聯發科蔡明介將不再兼任執行長 改由蔡力行專任</t>
-        </is>
-      </c>
-    </row>
-    <row r="2695">
-      <c r="A2695" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2695" t="inlineStr">
-        <is>
-          <t>台股盤後－月線強力支撐 鴻海點燃網通概念 開低震盪拉高收復11100</t>
-        </is>
-      </c>
-    </row>
-    <row r="2696">
-      <c r="A2696" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2696" t="inlineStr">
-        <is>
-          <t>中菲行深耕印度市場報捷 承攬大型牽引機獲國際龍頭青睞</t>
-        </is>
-      </c>
-    </row>
-    <row r="2697">
-      <c r="A2697" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2697" t="inlineStr">
-        <is>
-          <t>退休金怎麼存 逾5成投資人透過台股和基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="2698">
-      <c r="A2698" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2698" t="inlineStr">
-        <is>
-          <t>中保轉投資餐廳推新菜單，預期帶動業績成長一成</t>
-        </is>
-      </c>
-    </row>
-    <row r="2699">
-      <c r="A2699" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2699" t="inlineStr">
-        <is>
-          <t>反映上游原料成本，燁聯2月內外銷不鏽鋼盤價全面調漲，華新跟進</t>
-        </is>
-      </c>
-    </row>
-    <row r="2700">
-      <c r="A2700" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2700" t="inlineStr">
-        <is>
-          <t>搶蘋果智慧音箱最多軟板訂單，台郡今年營收挑戰300億關，每股賺12元</t>
-        </is>
-      </c>
-    </row>
-    <row r="2701">
-      <c r="A2701" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2701" t="inlineStr">
-        <is>
-          <t>中華電今年財測營收目標2,314.7-2,329.7億元，EPS估4.8-5.2元</t>
-        </is>
-      </c>
-    </row>
-    <row r="2702">
-      <c r="A2702" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2702" t="inlineStr">
-        <is>
-          <t>M503航班爭議 商總憂 恐衝擊台灣春節觀光商機</t>
-        </is>
-      </c>
-    </row>
-    <row r="2703">
-      <c r="A2703" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2703" t="inlineStr">
-        <is>
-          <t>中國下游需求旺盛，彰源原料上漲成本有望順勢轉嫁</t>
-        </is>
-      </c>
-    </row>
-    <row r="2704">
-      <c r="A2704" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2704" t="inlineStr">
-        <is>
-          <t>微星強攻電競，擴大電競桌機與周邊貢獻，今年業績雙位數看增</t>
-        </is>
-      </c>
-    </row>
-    <row r="2705">
-      <c r="A2705" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2705" t="inlineStr">
-        <is>
-          <t>鴻海股臨會通過分拆FII赴A股掛牌，郭台銘稱，Q4營運「很健康」</t>
-        </is>
-      </c>
-    </row>
-    <row r="2706">
-      <c r="A2706" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2706" t="inlineStr">
-        <is>
-          <t>崑鼎去年本業獲利小幅成長，本月拿下林口污水處理案一億元合約</t>
-        </is>
-      </c>
-    </row>
-    <row r="2707">
-      <c r="A2707" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2707" t="inlineStr">
-        <is>
-          <t>百達-KY在手設備訂單1.5億元，獲韓廠4000萬元訂單Q3出貨</t>
-        </is>
-      </c>
-    </row>
-    <row r="2708">
-      <c r="A2708" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2708" t="inlineStr">
-        <is>
-          <t>遭墾丁泊逸跳票，六福表示，投資成本已回收，集團營運不受影響</t>
-        </is>
-      </c>
-    </row>
-    <row r="2709">
-      <c r="A2709" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2709" t="inlineStr">
-        <is>
-          <t>崇越攜手華銀擁抱太陽能，力推綠能商機</t>
-        </is>
-      </c>
-    </row>
-    <row r="2710">
-      <c r="A2710" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2710" t="inlineStr">
-        <is>
-          <t>受惠無人商店推出，元太電子標籤需求旺，可望續創波段新高</t>
-        </is>
-      </c>
-    </row>
-    <row r="2711">
-      <c r="A2711" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2711" t="inlineStr">
-        <is>
-          <t>旺宏下午舉辦法說，外界展望樂觀</t>
-        </is>
-      </c>
-    </row>
-    <row r="2712">
-      <c r="A2712" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2712" t="inlineStr">
-        <is>
-          <t>迅得成PCB設備股新寵兒，盤中股價站上90元大關</t>
-        </is>
-      </c>
-    </row>
-    <row r="2713">
-      <c r="A2713" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2713" t="inlineStr">
-        <is>
-          <t>台郡去年稅後淨利創歷史新高，惟股價續殺摜破年線</t>
-        </is>
-      </c>
-    </row>
-    <row r="2714">
-      <c r="A2714" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2714" t="inlineStr">
-        <is>
-          <t>訊連2月26日舉行法說會，轉投資玩美移動今年營收可望明顯提升</t>
-        </is>
-      </c>
-    </row>
-    <row r="2715">
-      <c r="A2715" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr">
-        <is>
-          <t>原料價漲不停，微星醞釀年後調漲電競筆電售價，狗年電競市場旺旺旺</t>
-        </is>
-      </c>
-    </row>
-    <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2716" t="inlineStr">
-        <is>
-          <t>元太、中光電、富喬、佳凌</t>
-        </is>
-      </c>
-    </row>
-    <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2717" t="inlineStr">
-        <is>
-          <t>啟碁Q1較淡估營收季減15%，下半年轉強，全年營收挑戰600億元</t>
-        </is>
-      </c>
-    </row>
-    <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2718" t="inlineStr">
-        <is>
-          <t>遠傳攜手全國電子跨界合作，打造智慧新生活</t>
-        </is>
-      </c>
-    </row>
-    <row r="2719">
-      <c r="A2719" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr">
-        <is>
-          <t>特斯拉生產目標可望達成 概念股美琪瑪與康普逆勢抗跌</t>
-        </is>
-      </c>
-    </row>
-    <row r="2720">
-      <c r="A2720" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2720" t="inlineStr">
-        <is>
-          <t>【華冠投顧】華冠投顧 劉彥良-盤中解析</t>
-        </is>
-      </c>
-    </row>
-    <row r="2721">
-      <c r="A2721" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2721" t="inlineStr">
-        <is>
-          <t>辦門號搭家電年增6倍 遠傳攜全國電、小米搶進</t>
-        </is>
-      </c>
-    </row>
-    <row r="2722">
-      <c r="A2722" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2722" t="inlineStr">
-        <is>
-          <t>〈鴻海股臨會〉汽車布局 郭台銘證實不會做整車 而是關鍵零組件</t>
-        </is>
-      </c>
-    </row>
-    <row r="2723">
-      <c r="A2723" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2723" t="inlineStr">
-        <is>
-          <t>〈飯店拚升級搶人才〉雲品開今年第一槍 Q1啟動基層儲備幹部招募</t>
-        </is>
-      </c>
-    </row>
-    <row r="2724">
-      <c r="A2724" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2724" t="inlineStr">
-        <is>
-          <t>瑞昱Q4毛利率低預期 股價一度重挫跌破月線</t>
-        </is>
-      </c>
-    </row>
-    <row r="2725">
-      <c r="A2725" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2725" t="inlineStr">
-        <is>
-          <t>太設董座傳出恐遭挑戰換人？公司發言人稱，無法證實</t>
-        </is>
-      </c>
-    </row>
-    <row r="2726">
-      <c r="A2726" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2726" t="inlineStr">
-        <is>
-          <t>台股盤中─封關倒數、美股下跌投資心態觀望 大盤守月線</t>
-        </is>
-      </c>
-    </row>
-    <row r="2727">
-      <c r="A2727" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2727" t="inlineStr">
-        <is>
-          <t>〈鴻海股臨會〉問Q4毛利率 郭台銘：如果回答以後恐要在土城看守所開會</t>
-        </is>
-      </c>
-    </row>
-    <row r="2728">
-      <c r="A2728" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2728" t="inlineStr">
-        <is>
-          <t>〈鴻海股臨會〉郭台銘：將協助小股東抽籤認購FII股票 不用跑對岸到土城就好</t>
-        </is>
-      </c>
-    </row>
-    <row r="2729">
-      <c r="A2729" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2729" t="inlineStr">
-        <is>
-          <t>雄獅挾台幣升值利多 再擁2大成長新動能</t>
-        </is>
-      </c>
-    </row>
-    <row r="2730">
-      <c r="A2730" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2730" t="inlineStr">
-        <is>
-          <t>〈鴻海股臨會〉郭台銘：FII是六流公司 可提升生產效率30%</t>
-        </is>
-      </c>
-    </row>
-    <row r="2731">
-      <c r="A2731" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2731" t="inlineStr">
-        <is>
-          <t>〈鴻海股臨會〉郭董：線上看診再等20年吧！</t>
-        </is>
-      </c>
-    </row>
-    <row r="2732">
-      <c r="A2732" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2732" t="inlineStr">
-        <is>
-          <t>三箭齊發，超豐今年營收與獲利有望續創新高</t>
-        </is>
-      </c>
-    </row>
-    <row r="2733">
-      <c r="A2733" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2733" t="inlineStr">
-        <is>
-          <t>〈鴻海股臨會〉郭台銘：基本面不錯 但小股民常受外資與消息面影響</t>
-        </is>
-      </c>
-    </row>
-    <row r="2734">
-      <c r="A2734" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2734" t="inlineStr">
-        <is>
-          <t>時碩申購中籤率僅1.05% 2/5每股60元掛牌上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="2735">
-      <c r="A2735" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2735" t="inlineStr">
-        <is>
-          <t>業外加持，智原去年賺8.36億元，創五年來新高</t>
-        </is>
-      </c>
-    </row>
-    <row r="2736">
-      <c r="A2736" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2736" t="inlineStr">
-        <is>
-          <t>力成旺季效應自第二季起顯現，拿下兩家比特幣挖礦機客戶訂單</t>
-        </is>
-      </c>
-    </row>
-    <row r="2737">
-      <c r="A2737" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2737" t="inlineStr">
-        <is>
-          <t>台塑集團總裁表示，上半年能見度高，今年營運不比去年差</t>
-        </is>
-      </c>
-    </row>
-    <row r="2738">
-      <c r="A2738" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2738" t="inlineStr">
-        <is>
-          <t>不堪連年虧損，迎輝減資5成，另辦理3千萬股私募，淡出聚光片生產</t>
-        </is>
-      </c>
-    </row>
-    <row r="2739">
-      <c r="A2739" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2739" t="inlineStr">
-        <is>
-          <t>【新光證券】盤前分析</t>
-        </is>
-      </c>
-    </row>
-    <row r="2740">
-      <c r="A2740" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2740" t="inlineStr">
-        <is>
-          <t>台股盤前—美股再大跌362點 外資恐成賣壓來源 考驗月線支撐</t>
-        </is>
-      </c>
-    </row>
-    <row r="2741">
-      <c r="A2741" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr">
-        <is>
-          <t>【大昌投顧】盤前分析－傳產類股塑化族群跌幅擴大</t>
-        </is>
-      </c>
-    </row>
-    <row r="2742">
-      <c r="A2742" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2742" t="inlineStr">
-        <is>
-          <t>【統一期貨】台期指暨選擇權盤前分析</t>
-        </is>
-      </c>
-    </row>
-    <row r="2743">
-      <c r="A2743" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2743" t="inlineStr">
-        <is>
-          <t>【統一證券】盤前分析－短線盤勢震盪難免，但仍有高點可期，逢低承接偏多操作</t>
-        </is>
-      </c>
-    </row>
-    <row r="2744">
-      <c r="A2744" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2744" t="inlineStr">
-        <is>
-          <t>【元大期貨】台股期指盤前－蘋概股重壓，台指跌百點！</t>
-        </is>
-      </c>
-    </row>
-    <row r="2745">
-      <c r="A2745" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2745" t="inlineStr">
-        <is>
-          <t>【永豐期貨】台指選擇權盤前－權值股熄火 台股跌逾百點失守十日線</t>
-        </is>
-      </c>
-    </row>
-    <row r="2746">
-      <c r="A2746" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2746" t="inlineStr">
-        <is>
-          <t>【大慶證券】投顧盤前－擔憂升息國際股拉回  台股月線為多空關鍵</t>
-        </is>
-      </c>
-    </row>
-    <row r="2747">
-      <c r="A2747" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2747" t="inlineStr">
-        <is>
-          <t>【日盛投顧】盤前分析</t>
-        </is>
-      </c>
-    </row>
-    <row r="2748">
-      <c r="A2748" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2748" t="inlineStr">
-        <is>
-          <t>【華冠投顧】賺錢金鍾講-台股盤前分析-鍾騏遠分析師</t>
-        </is>
-      </c>
-    </row>
-    <row r="2749">
-      <c r="A2749" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2749" t="inlineStr">
-        <is>
-          <t>盤前財經大事搶先讀2018年1月31日</t>
-        </is>
-      </c>
-    </row>
-    <row r="2750">
-      <c r="A2750" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2750" t="inlineStr">
-        <is>
-          <t>台灣主要報紙重要財經新聞 2018年1月31日</t>
-        </is>
-      </c>
-    </row>
-    <row r="2751">
-      <c r="A2751" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2751" t="inlineStr">
-        <is>
-          <t>【鉅亨-盤前掃瞄】基本面</t>
-        </is>
-      </c>
-    </row>
-    <row r="2752">
-      <c r="A2752" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2752" t="inlineStr">
-        <is>
-          <t>【鉅亨-盤前掃瞄】技術面</t>
-        </is>
-      </c>
-    </row>
-    <row r="2753">
-      <c r="A2753" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2753" t="inlineStr">
-        <is>
-          <t>◆投信連續3日賣超個股</t>
-        </is>
-      </c>
-    </row>
-    <row r="2754">
-      <c r="A2754" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2754" t="inlineStr">
-        <is>
-          <t>◆投信連續3日買超個股</t>
-        </is>
-      </c>
-    </row>
-    <row r="2755">
-      <c r="A2755" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2755" t="inlineStr">
-        <is>
-          <t>◆外資連續5日賣超個股</t>
-        </is>
-      </c>
-    </row>
-    <row r="2756">
-      <c r="A2756" t="inlineStr">
-        <is>
-          <t>2018-01-31</t>
-        </is>
-      </c>
-      <c r="B2756" t="inlineStr">
         <is>
           <t>◆外資連續5日買超個股</t>
         </is>
